--- a/discer data.xlsx
+++ b/discer data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="315">
   <si>
     <t>ITEM NUMBER</t>
   </si>
@@ -40,6 +40,12 @@
     <t>Fade</t>
   </si>
   <si>
+    <t>Stability</t>
+  </si>
+  <si>
+    <t>Main Flight Tag</t>
+  </si>
+  <si>
     <t>1121760</t>
   </si>
   <si>
@@ -49,24 +55,36 @@
     <t>Disc Golf - Drivers</t>
   </si>
   <si>
+    <t>Roller</t>
+  </si>
+  <si>
     <t>1121733</t>
   </si>
   <si>
     <t>Champion Driver Firebird</t>
   </si>
   <si>
+    <t>Hyzer</t>
+  </si>
+  <si>
     <t>1121759</t>
   </si>
   <si>
     <t>Star Driver Leopard</t>
   </si>
   <si>
+    <t>Hyzer Flip</t>
+  </si>
+  <si>
     <t>1187245</t>
   </si>
   <si>
     <t>Champion Driver Thunderbird</t>
   </si>
   <si>
+    <t>Straight</t>
+  </si>
+  <si>
     <t>1121756</t>
   </si>
   <si>
@@ -154,255 +172,258 @@
     <t>1201827</t>
   </si>
   <si>
+    <t>Active Premium Driver Magician</t>
+  </si>
+  <si>
+    <t>1201867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arctic Line Driver Night </t>
+  </si>
+  <si>
+    <t>1242743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Champion Midrange Rollo, </t>
+  </si>
+  <si>
+    <t>1242761</t>
+  </si>
+  <si>
+    <t>Neutron Midrange Hex, 170</t>
+  </si>
+  <si>
+    <t>1187274</t>
+  </si>
+  <si>
+    <t>Tiger Line Driver Hu</t>
+  </si>
+  <si>
+    <t>1121726</t>
+  </si>
+  <si>
+    <t>Champion Midrange Mako3</t>
+  </si>
+  <si>
+    <t>1187277</t>
+  </si>
+  <si>
+    <t>Phoenix Midrange Yao</t>
+  </si>
+  <si>
+    <t>1201870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arctic Line Driver Short </t>
+  </si>
+  <si>
+    <t>1187272</t>
+  </si>
+  <si>
+    <t>Tiger Line Midrange Kui</t>
+  </si>
+  <si>
+    <t>1201869</t>
+  </si>
+  <si>
+    <t>Arctic Line Midrange Sile</t>
+  </si>
+  <si>
+    <t>1242730</t>
+  </si>
+  <si>
+    <t>Esp Midrange Buzzz, 177g+</t>
+  </si>
+  <si>
+    <t>1242737</t>
+  </si>
+  <si>
+    <t>Z Midrange Buzzz SS, 170-</t>
+  </si>
+  <si>
+    <t>1242750</t>
+  </si>
+  <si>
+    <t>Halo Star Destroyer Dista</t>
+  </si>
+  <si>
+    <t>1187276</t>
+  </si>
+  <si>
+    <t>Phoenix Putter Gui</t>
+  </si>
+  <si>
+    <t>1242751</t>
+  </si>
+  <si>
+    <t>Star Driver Gorgon, 173-1</t>
+  </si>
+  <si>
+    <t>1242771</t>
+  </si>
+  <si>
+    <t>Phoenix Driver View, 170-</t>
+  </si>
+  <si>
+    <t>1171646</t>
+  </si>
+  <si>
+    <t>Safetyline Midrange Cirru</t>
+  </si>
+  <si>
+    <t>1242732</t>
+  </si>
+  <si>
+    <t>Esp Driver Nuke, 170-176g</t>
+  </si>
+  <si>
+    <t>1214263</t>
+  </si>
+  <si>
+    <t>Chrome Line Driver Cosmic</t>
+  </si>
+  <si>
+    <t>1242736</t>
+  </si>
+  <si>
+    <t>Esp Driver Undertaker, 17</t>
+  </si>
+  <si>
+    <t>1242735</t>
+  </si>
+  <si>
+    <t>Esp Putter Zone, 173-176g</t>
+  </si>
+  <si>
+    <t>1201882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glacier Line Putter Flow </t>
+  </si>
+  <si>
+    <t>1201879</t>
+  </si>
+  <si>
+    <t>Tiger Line Putter Xing</t>
+  </si>
+  <si>
+    <t>1242740</t>
+  </si>
+  <si>
+    <t>Z Putter Luna PM, 173-176</t>
+  </si>
+  <si>
+    <t>1187279</t>
+  </si>
+  <si>
+    <t>Phoenix Driver Jun</t>
+  </si>
+  <si>
+    <t>1201881</t>
+  </si>
+  <si>
+    <t>Glacier Line Driver Night</t>
+  </si>
+  <si>
+    <t>1201888</t>
+  </si>
+  <si>
+    <t>Phoenix Driver Fu</t>
+  </si>
+  <si>
+    <t>1201880</t>
+  </si>
+  <si>
+    <t>Glacier Line Midrange Mad</t>
+  </si>
+  <si>
+    <t>1187273</t>
+  </si>
+  <si>
+    <t>Tiger Line Driver View</t>
+  </si>
+  <si>
+    <t>1133454</t>
+  </si>
+  <si>
+    <t>1187278</t>
+  </si>
+  <si>
+    <t>Phoenix Midrange Kui</t>
+  </si>
+  <si>
+    <t>1201811</t>
+  </si>
+  <si>
+    <t>Exo Putter Logic Hard</t>
+  </si>
+  <si>
+    <t>1187231</t>
+  </si>
+  <si>
+    <t>Exo Putter Tactic Hard</t>
+  </si>
+  <si>
+    <t>1201812</t>
+  </si>
+  <si>
+    <t>Exo Putter Logic Soft</t>
+  </si>
+  <si>
+    <t>1201815</t>
+  </si>
+  <si>
+    <t>Active Putter Shogun</t>
+  </si>
+  <si>
+    <t>1201866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arctic Line Midrange Mad </t>
+  </si>
+  <si>
+    <t>1242770</t>
+  </si>
+  <si>
+    <t>Tiger Line Driver View, 1</t>
+  </si>
+  <si>
+    <t>1201818</t>
+  </si>
+  <si>
+    <t>Active Driver Magician</t>
+  </si>
+  <si>
+    <t>1187227</t>
+  </si>
+  <si>
+    <t>Exo Putter Link Soft</t>
+  </si>
+  <si>
+    <t>1187270</t>
+  </si>
+  <si>
+    <t>Tiger Line Putter Gui</t>
+  </si>
+  <si>
+    <t>1201819</t>
+  </si>
+  <si>
+    <t>Active Driver Genius</t>
+  </si>
+  <si>
+    <t>1201829</t>
+  </si>
+  <si>
+    <t>Active Premium Driver Roc</t>
+  </si>
+  <si>
+    <t>1187242</t>
+  </si>
+  <si>
     <t>Active Premium Driver Mag</t>
   </si>
   <si>
-    <t>1201867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arctic Line Driver Night </t>
-  </si>
-  <si>
-    <t>1242743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Champion Midrange Rollo, </t>
-  </si>
-  <si>
-    <t>1242761</t>
-  </si>
-  <si>
-    <t>Neutron Midrange Hex, 170</t>
-  </si>
-  <si>
-    <t>1187274</t>
-  </si>
-  <si>
-    <t>Tiger Line Driver Hu</t>
-  </si>
-  <si>
-    <t>1121726</t>
-  </si>
-  <si>
-    <t>Champion Midrange Mako3</t>
-  </si>
-  <si>
-    <t>1187277</t>
-  </si>
-  <si>
-    <t>Phoenix Midrange Yao</t>
-  </si>
-  <si>
-    <t>1201870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arctic Line Driver Short </t>
-  </si>
-  <si>
-    <t>1187272</t>
-  </si>
-  <si>
-    <t>Tiger Line Midrange Kui</t>
-  </si>
-  <si>
-    <t>1201869</t>
-  </si>
-  <si>
-    <t>Arctic Line Midrange Sile</t>
-  </si>
-  <si>
-    <t>1242730</t>
-  </si>
-  <si>
-    <t>Esp Midrange Buzzz, 177g+</t>
-  </si>
-  <si>
-    <t>1242737</t>
-  </si>
-  <si>
-    <t>Z Midrange Buzzz SS, 170-</t>
-  </si>
-  <si>
-    <t>1242750</t>
-  </si>
-  <si>
-    <t>Halo Star Destroyer Dista</t>
-  </si>
-  <si>
-    <t>1187276</t>
-  </si>
-  <si>
-    <t>Phoenix Putter Gui</t>
-  </si>
-  <si>
-    <t>1242751</t>
-  </si>
-  <si>
-    <t>Star Driver Gorgon, 173-1</t>
-  </si>
-  <si>
-    <t>1242771</t>
-  </si>
-  <si>
-    <t>Phoenix Driver View, 170-</t>
-  </si>
-  <si>
-    <t>1171646</t>
-  </si>
-  <si>
-    <t>Safetyline Midrange Cirru</t>
-  </si>
-  <si>
-    <t>1242732</t>
-  </si>
-  <si>
-    <t>Esp Driver Nuke, 170-176g</t>
-  </si>
-  <si>
-    <t>1214263</t>
-  </si>
-  <si>
-    <t>Chrome Line Driver Cosmic</t>
-  </si>
-  <si>
-    <t>1242736</t>
-  </si>
-  <si>
-    <t>Esp Driver Undertaker, 17</t>
-  </si>
-  <si>
-    <t>1242735</t>
-  </si>
-  <si>
-    <t>Esp Putter Zone, 173-176g</t>
-  </si>
-  <si>
-    <t>1201882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glacier Line Putter Flow </t>
-  </si>
-  <si>
-    <t>1201879</t>
-  </si>
-  <si>
-    <t>Tiger Line Putter Xing</t>
-  </si>
-  <si>
-    <t>1242740</t>
-  </si>
-  <si>
-    <t>Z Putter Luna PM, 173-176</t>
-  </si>
-  <si>
-    <t>1187279</t>
-  </si>
-  <si>
-    <t>Phoenix Driver Jun</t>
-  </si>
-  <si>
-    <t>1201881</t>
-  </si>
-  <si>
-    <t>Glacier Line Driver Night</t>
-  </si>
-  <si>
-    <t>1201888</t>
-  </si>
-  <si>
-    <t>Phoenix Driver Fu</t>
-  </si>
-  <si>
-    <t>1201880</t>
-  </si>
-  <si>
-    <t>Glacier Line Midrange Mad</t>
-  </si>
-  <si>
-    <t>1187273</t>
-  </si>
-  <si>
-    <t>Tiger Line Driver View</t>
-  </si>
-  <si>
-    <t>1133454</t>
-  </si>
-  <si>
-    <t>1187278</t>
-  </si>
-  <si>
-    <t>Phoenix Midrange Kui</t>
-  </si>
-  <si>
-    <t>1201811</t>
-  </si>
-  <si>
-    <t>Exo Putter Logic Hard</t>
-  </si>
-  <si>
-    <t>1187231</t>
-  </si>
-  <si>
-    <t>Exo Putter Tactic Hard</t>
-  </si>
-  <si>
-    <t>1201812</t>
-  </si>
-  <si>
-    <t>Exo Putter Logic Soft</t>
-  </si>
-  <si>
-    <t>1201815</t>
-  </si>
-  <si>
-    <t>Active Putter Shogun</t>
-  </si>
-  <si>
-    <t>1201866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arctic Line Midrange Mad </t>
-  </si>
-  <si>
-    <t>1242770</t>
-  </si>
-  <si>
-    <t>Tiger Line Driver View, 1</t>
-  </si>
-  <si>
-    <t>1201818</t>
-  </si>
-  <si>
-    <t>Active Driver Magician</t>
-  </si>
-  <si>
-    <t>1187227</t>
-  </si>
-  <si>
-    <t>Exo Putter Link Soft</t>
-  </si>
-  <si>
-    <t>1187270</t>
-  </si>
-  <si>
-    <t>Tiger Line Putter Gui</t>
-  </si>
-  <si>
-    <t>1201819</t>
-  </si>
-  <si>
-    <t>Active Driver Genius</t>
-  </si>
-  <si>
-    <t>1201829</t>
-  </si>
-  <si>
-    <t>Active Premium Driver Roc</t>
-  </si>
-  <si>
-    <t>1187242</t>
-  </si>
-  <si>
     <t>1201883</t>
   </si>
   <si>
@@ -656,6 +677,9 @@
   </si>
   <si>
     <t>Opto Driver Bolt</t>
+  </si>
+  <si>
+    <t>Flex Shot</t>
   </si>
   <si>
     <t>1220585</t>
@@ -978,7 +1002,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -996,6 +1020,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,16 +1269,22 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="5">
         <v>739.0</v>
@@ -1271,16 +1304,23 @@
       <c r="I2" s="6">
         <v>1.0</v>
       </c>
+      <c r="J2" s="4" t="str">
+        <f t="shared" ref="J2:J154" si="1">IF(H2&lt;=-2, "Understable", IF(AND(H2&gt;=0, I2&gt;=3), "Overstable", "Stable"))</f>
+        <v>Understable</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5">
         <v>719.0</v>
@@ -1300,16 +1340,23 @@
       <c r="I3" s="6">
         <v>4.0</v>
       </c>
+      <c r="J3" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5">
         <v>662.0</v>
@@ -1329,16 +1376,23 @@
       <c r="I4" s="6">
         <v>1.0</v>
       </c>
+      <c r="J4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5">
         <v>555.0</v>
@@ -1358,16 +1412,23 @@
       <c r="I5" s="3">
         <v>2.0</v>
       </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5">
         <v>504.0</v>
@@ -1387,16 +1448,23 @@
       <c r="I6" s="6">
         <v>3.0</v>
       </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5">
         <v>422.0</v>
@@ -1416,16 +1484,23 @@
       <c r="I7" s="6">
         <v>3.0</v>
       </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5">
         <v>484.0</v>
@@ -1445,16 +1520,23 @@
       <c r="I8" s="6">
         <v>3.0</v>
       </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5">
         <v>460.0</v>
@@ -1474,16 +1556,23 @@
       <c r="I9" s="6">
         <v>3.0</v>
       </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" s="5">
         <v>454.0</v>
@@ -1503,16 +1592,23 @@
       <c r="I10" s="6">
         <v>1.0</v>
       </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" s="5">
         <v>454.0</v>
@@ -1532,16 +1628,23 @@
       <c r="I11" s="6">
         <v>2.0</v>
       </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5">
         <v>695.0</v>
@@ -1561,16 +1664,23 @@
       <c r="I12" s="6">
         <v>1.0</v>
       </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5">
         <v>1048.0</v>
@@ -1590,16 +1700,23 @@
       <c r="I13" s="3">
         <v>2.0</v>
       </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5">
         <v>358.0</v>
@@ -1619,16 +1736,23 @@
       <c r="I14" s="6">
         <v>1.0</v>
       </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" s="5">
         <v>1016.0</v>
@@ -1648,16 +1772,23 @@
       <c r="I15" s="7">
         <v>2.0</v>
       </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D16" s="5">
         <v>391.0</v>
@@ -1677,16 +1808,23 @@
       <c r="I16" s="6">
         <v>0.0</v>
       </c>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D17" s="5">
         <v>901.0</v>
@@ -1706,16 +1844,23 @@
       <c r="I17" s="7">
         <v>1.0</v>
       </c>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D18" s="5">
         <v>343.0</v>
@@ -1735,16 +1880,23 @@
       <c r="I18" s="6">
         <v>2.0</v>
       </c>
+      <c r="J18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" s="5">
         <v>362.0</v>
@@ -1752,28 +1904,35 @@
       <c r="E19" s="4">
         <v>199.0</v>
       </c>
-      <c r="F19" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1.0</v>
+      <c r="F19" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D20" s="5">
         <v>782.0</v>
@@ -1793,16 +1952,23 @@
       <c r="I20" s="7">
         <v>1.0</v>
       </c>
+      <c r="J20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D21" s="5">
         <v>306.0</v>
@@ -1822,16 +1988,23 @@
       <c r="I21" s="6">
         <v>1.0</v>
       </c>
+      <c r="J21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5">
         <v>244.0</v>
@@ -1851,16 +2024,23 @@
       <c r="I22" s="3">
         <v>1.0</v>
       </c>
+      <c r="J22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23" s="5">
         <v>683.0</v>
@@ -1880,16 +2060,23 @@
       <c r="I23" s="3">
         <v>1.0</v>
       </c>
+      <c r="J23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D24" s="5">
         <v>250.0</v>
@@ -1909,16 +2096,23 @@
       <c r="I24" s="3">
         <v>0.0</v>
       </c>
+      <c r="J24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D25" s="5">
         <v>416.0</v>
@@ -1938,16 +2132,23 @@
       <c r="I25" s="3">
         <v>0.0</v>
       </c>
+      <c r="J25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D26" s="5">
         <v>605.0</v>
@@ -1967,16 +2168,23 @@
       <c r="I26" s="3">
         <v>2.0</v>
       </c>
+      <c r="J26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D27" s="5">
         <v>585.0</v>
@@ -1996,16 +2204,23 @@
       <c r="I27" s="3">
         <v>2.0</v>
       </c>
+      <c r="J27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D28" s="5">
         <v>546.0</v>
@@ -2025,16 +2240,23 @@
       <c r="I28" s="3">
         <v>3.0</v>
       </c>
+      <c r="J28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D29" s="5">
         <v>162.0</v>
@@ -2054,16 +2276,23 @@
       <c r="I29" s="3">
         <v>1.0</v>
       </c>
+      <c r="J29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D30" s="5">
         <v>171.0</v>
@@ -2083,16 +2312,23 @@
       <c r="I30" s="3">
         <v>1.0</v>
       </c>
+      <c r="J30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D31" s="5">
         <v>164.0</v>
@@ -2112,16 +2348,23 @@
       <c r="I31" s="6">
         <v>3.0</v>
       </c>
+      <c r="J31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D32" s="5">
         <v>329.0</v>
@@ -2141,16 +2384,23 @@
       <c r="I32" s="3">
         <v>2.0</v>
       </c>
+      <c r="J32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D33" s="5">
         <v>189.0</v>
@@ -2170,16 +2420,23 @@
       <c r="I33" s="3">
         <v>2.0</v>
       </c>
+      <c r="J33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D34" s="5">
         <v>310.0</v>
@@ -2199,16 +2456,23 @@
       <c r="I34" s="3">
         <v>1.0</v>
       </c>
+      <c r="J34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D35" s="5">
         <v>337.0</v>
@@ -2228,16 +2492,23 @@
       <c r="I35" s="3">
         <v>2.0</v>
       </c>
+      <c r="J35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D36" s="5">
         <v>126.0</v>
@@ -2257,16 +2528,23 @@
       <c r="I36" s="3">
         <v>3.0</v>
       </c>
+      <c r="J36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D37" s="5">
         <v>189.0</v>
@@ -2286,16 +2564,23 @@
       <c r="I37" s="3">
         <v>2.0</v>
       </c>
+      <c r="J37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D38" s="5">
         <v>122.0</v>
@@ -2315,16 +2600,23 @@
       <c r="I38" s="3">
         <v>2.0</v>
       </c>
+      <c r="J38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D39" s="5">
         <v>118.0</v>
@@ -2344,16 +2636,23 @@
       <c r="I39" s="3">
         <v>3.0</v>
       </c>
+      <c r="J39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D40" s="5">
         <v>224.0</v>
@@ -2373,16 +2672,23 @@
       <c r="I40" s="3">
         <v>2.0</v>
       </c>
+      <c r="J40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D41" s="5">
         <v>364.0</v>
@@ -2402,16 +2708,23 @@
       <c r="I41" s="3">
         <v>1.0</v>
       </c>
+      <c r="J41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D42" s="5">
         <v>89.0</v>
@@ -2431,16 +2744,23 @@
       <c r="I42" s="3">
         <v>2.0</v>
       </c>
+      <c r="J42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D43" s="5">
         <v>222.0</v>
@@ -2460,16 +2780,23 @@
       <c r="I43" s="3">
         <v>2.0</v>
       </c>
+      <c r="J43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D44" s="5">
         <v>192.0</v>
@@ -2489,16 +2816,23 @@
       <c r="I44" s="3">
         <v>2.0</v>
       </c>
+      <c r="J44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D45" s="5">
         <v>161.0</v>
@@ -2518,16 +2852,23 @@
       <c r="I45" s="3">
         <v>1.0</v>
       </c>
+      <c r="J45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D46" s="5">
         <v>163.0</v>
@@ -2547,16 +2888,23 @@
       <c r="I46" s="3">
         <v>3.0</v>
       </c>
+      <c r="J46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D47" s="5">
         <v>272.0</v>
@@ -2576,16 +2924,23 @@
       <c r="I47" s="3">
         <v>1.0</v>
       </c>
+      <c r="J47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D48" s="5">
         <v>104.0</v>
@@ -2605,16 +2960,23 @@
       <c r="I48" s="6">
         <v>1.0</v>
       </c>
+      <c r="J48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D49" s="5">
         <v>128.0</v>
@@ -2634,16 +2996,23 @@
       <c r="I49" s="7">
         <v>2.0</v>
       </c>
+      <c r="J49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D50" s="5">
         <v>141.0</v>
@@ -2663,16 +3032,23 @@
       <c r="I50" s="7">
         <v>1.0</v>
       </c>
+      <c r="J50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D51" s="5">
         <v>138.0</v>
@@ -2692,16 +3068,23 @@
       <c r="I51" s="7">
         <v>3.0</v>
       </c>
+      <c r="J51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D52" s="5">
         <v>123.0</v>
@@ -2721,16 +3104,23 @@
       <c r="I52" s="7">
         <v>1.0</v>
       </c>
+      <c r="J52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D53" s="5">
         <v>152.0</v>
@@ -2750,16 +3140,23 @@
       <c r="I53" s="7">
         <v>2.0</v>
       </c>
+      <c r="J53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D54" s="5">
         <v>186.0</v>
@@ -2779,16 +3176,23 @@
       <c r="I54" s="7">
         <v>3.0</v>
       </c>
+      <c r="J54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D55" s="5">
         <v>177.0</v>
@@ -2808,16 +3212,23 @@
       <c r="I55" s="7">
         <v>1.0</v>
       </c>
+      <c r="J55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D56" s="5">
         <v>124.0</v>
@@ -2825,28 +3236,35 @@
       <c r="E56" s="4">
         <v>119.0</v>
       </c>
-      <c r="F56" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G56" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="H56" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="I56" s="6">
-        <v>1.0</v>
+      <c r="F56" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="G56" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H56" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I56" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J56" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D57" s="5">
         <v>99.0</v>
@@ -2866,16 +3284,23 @@
       <c r="I57" s="7">
         <v>1.0</v>
       </c>
+      <c r="J57" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D58" s="5">
         <v>147.0</v>
@@ -2895,16 +3320,23 @@
       <c r="I58" s="7">
         <v>2.0</v>
       </c>
+      <c r="J58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D59" s="5">
         <v>109.0</v>
@@ -2924,16 +3356,23 @@
       <c r="I59" s="7">
         <v>1.0</v>
       </c>
+      <c r="J59" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D60" s="5">
         <v>53.0</v>
@@ -2953,16 +3392,23 @@
       <c r="I60" s="7">
         <v>1.0</v>
       </c>
+      <c r="J60" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D61" s="5">
         <v>49.0</v>
@@ -2970,28 +3416,35 @@
       <c r="E61" s="4">
         <v>199.0</v>
       </c>
-      <c r="F61" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G61" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="H61" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="I61" s="6">
-        <v>1.0</v>
+      <c r="F61" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="G61" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I61" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J61" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D62" s="5">
         <v>60.0</v>
@@ -3011,16 +3464,23 @@
       <c r="I62" s="7">
         <v>2.5</v>
       </c>
+      <c r="J62" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D63" s="5">
         <v>50.0</v>
@@ -3040,16 +3500,23 @@
       <c r="I63" s="7">
         <v>3.0</v>
       </c>
+      <c r="J63" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D64" s="5">
         <v>48.0</v>
@@ -3069,16 +3536,23 @@
       <c r="I64" s="7">
         <v>1.0</v>
       </c>
+      <c r="J64" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D65" s="5">
         <v>27.0</v>
@@ -3098,16 +3572,23 @@
       <c r="I65" s="6">
         <v>2.0</v>
       </c>
+      <c r="J65" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D66" s="5">
         <v>36.0</v>
@@ -3127,16 +3608,23 @@
       <c r="I66" s="7">
         <v>1.0</v>
       </c>
+      <c r="J66" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D67" s="5">
         <v>34.0</v>
@@ -3156,16 +3644,23 @@
       <c r="I67" s="7">
         <v>2.0</v>
       </c>
+      <c r="J67" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D68" s="5">
         <v>34.0</v>
@@ -3185,16 +3680,23 @@
       <c r="I68" s="7">
         <v>2.0</v>
       </c>
+      <c r="J68" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D69" s="5">
         <v>22.0</v>
@@ -3214,16 +3716,23 @@
       <c r="I69" s="7">
         <v>2.5</v>
       </c>
+      <c r="J69" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D70" s="5">
         <v>23.0</v>
@@ -3243,16 +3752,23 @@
       <c r="I70" s="6">
         <v>1.0</v>
       </c>
+      <c r="J70" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D71" s="5">
         <v>27.0</v>
@@ -3272,16 +3788,23 @@
       <c r="I71" s="7">
         <v>2.0</v>
       </c>
+      <c r="J71" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D72" s="5">
         <v>19.0</v>
@@ -3301,16 +3824,23 @@
       <c r="I72" s="7">
         <v>3.0</v>
       </c>
+      <c r="J72" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D73" s="5">
         <v>13.0</v>
@@ -3330,16 +3860,23 @@
       <c r="I73" s="7">
         <v>2.0</v>
       </c>
+      <c r="J73" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D74" s="5">
         <v>20.0</v>
@@ -3359,16 +3896,23 @@
       <c r="I74" s="7">
         <v>1.0</v>
       </c>
+      <c r="J74" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D75" s="5">
         <v>9.0</v>
@@ -3388,16 +3932,23 @@
       <c r="I75" s="7">
         <v>1.0</v>
       </c>
+      <c r="J75" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D76" s="5">
         <v>8.0</v>
@@ -3417,16 +3968,23 @@
       <c r="I76" s="7">
         <v>1.0</v>
       </c>
+      <c r="J76" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D77" s="5">
         <v>7.0</v>
@@ -3446,16 +4004,23 @@
       <c r="I77" s="7">
         <v>1.0</v>
       </c>
+      <c r="J77" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D78" s="5">
         <v>15.0</v>
@@ -3475,16 +4040,23 @@
       <c r="I78" s="7">
         <v>1.0</v>
       </c>
+      <c r="J78" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D79" s="5">
         <v>5.0</v>
@@ -3504,16 +4076,23 @@
       <c r="I79" s="7">
         <v>3.0</v>
       </c>
+      <c r="J79" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D80" s="5">
         <v>5.0</v>
@@ -3533,16 +4112,23 @@
       <c r="I80" s="7">
         <v>1.0</v>
       </c>
+      <c r="J80" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D81" s="5">
         <v>5.0</v>
@@ -3562,16 +4148,23 @@
       <c r="I81" s="7">
         <v>3.0</v>
       </c>
+      <c r="J81" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D82" s="5">
         <v>4.0</v>
@@ -3591,16 +4184,23 @@
       <c r="I82" s="7">
         <v>1.0</v>
       </c>
+      <c r="J82" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D83" s="5">
         <v>3.0</v>
@@ -3620,16 +4220,23 @@
       <c r="I83" s="7">
         <v>2.0</v>
       </c>
+      <c r="J83" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D84" s="5">
         <v>3.0</v>
@@ -3649,16 +4256,23 @@
       <c r="I84" s="7">
         <v>1.0</v>
       </c>
+      <c r="J84" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D85" s="5">
         <v>4.0</v>
@@ -3678,16 +4292,23 @@
       <c r="I85" s="7">
         <v>1.0</v>
       </c>
+      <c r="J85" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D86" s="5">
         <v>4.0</v>
@@ -3707,16 +4328,23 @@
       <c r="I86" s="7">
         <v>2.0</v>
       </c>
+      <c r="J86" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D87" s="5">
         <v>4.0</v>
@@ -3736,16 +4364,23 @@
       <c r="I87" s="7">
         <v>1.0</v>
       </c>
+      <c r="J87" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D88" s="5">
         <v>2.0</v>
@@ -3765,16 +4400,23 @@
       <c r="I88" s="7">
         <v>3.0</v>
       </c>
+      <c r="J88" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D89" s="5">
         <v>2.0</v>
@@ -3794,16 +4436,23 @@
       <c r="I89" s="7">
         <v>1.0</v>
       </c>
+      <c r="J89" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D90" s="5">
         <v>2.0</v>
@@ -3823,16 +4472,23 @@
       <c r="I90" s="7">
         <v>1.0</v>
       </c>
+      <c r="J90" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D91" s="5">
         <v>2.0</v>
@@ -3852,16 +4508,23 @@
       <c r="I91" s="7">
         <v>1.0</v>
       </c>
+      <c r="J91" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D92" s="5">
         <v>2.0</v>
@@ -3881,16 +4544,23 @@
       <c r="I92" s="6">
         <v>1.0</v>
       </c>
+      <c r="J92" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D93" s="5">
         <v>2.0</v>
@@ -3910,16 +4580,23 @@
       <c r="I93" s="7">
         <v>2.0</v>
       </c>
+      <c r="J93" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D94" s="5">
         <v>2.0</v>
@@ -3939,16 +4616,23 @@
       <c r="I94" s="7">
         <v>1.0</v>
       </c>
+      <c r="J94" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D95" s="5">
         <v>4.0</v>
@@ -3968,16 +4652,23 @@
       <c r="I95" s="7">
         <v>1.0</v>
       </c>
+      <c r="J95" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D96" s="5">
         <v>2.0</v>
@@ -3997,16 +4688,23 @@
       <c r="I96" s="7">
         <v>1.0</v>
       </c>
+      <c r="J96" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D97" s="5">
         <v>2.0</v>
@@ -4026,16 +4724,23 @@
       <c r="I97" s="7">
         <v>1.0</v>
       </c>
+      <c r="J97" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D98" s="5">
         <v>2.0</v>
@@ -4055,16 +4760,23 @@
       <c r="I98" s="7">
         <v>1.0</v>
       </c>
+      <c r="J98" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D99" s="5">
         <v>1.0</v>
@@ -4084,16 +4796,23 @@
       <c r="I99" s="7">
         <v>3.0</v>
       </c>
+      <c r="J99" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D100" s="5">
         <v>1.0</v>
@@ -4113,16 +4832,23 @@
       <c r="I100" s="7">
         <v>2.0</v>
       </c>
+      <c r="J100" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D101" s="5">
         <v>1.0</v>
@@ -4142,16 +4868,23 @@
       <c r="I101" s="7">
         <v>1.0</v>
       </c>
+      <c r="J101" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D102" s="5">
         <v>2.0</v>
@@ -4171,16 +4904,23 @@
       <c r="I102" s="7">
         <v>2.0</v>
       </c>
+      <c r="J102" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D103" s="5">
         <v>2.0</v>
@@ -4200,16 +4940,23 @@
       <c r="I103" s="7">
         <v>1.0</v>
       </c>
+      <c r="J103" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D104" s="5">
         <v>1.0</v>
@@ -4229,16 +4976,23 @@
       <c r="I104" s="7">
         <v>2.0</v>
       </c>
+      <c r="J104" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D105" s="5">
         <v>1.0</v>
@@ -4258,16 +5012,23 @@
       <c r="I105" s="7">
         <v>0.0</v>
       </c>
+      <c r="J105" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D106" s="5">
         <v>1.0</v>
@@ -4287,16 +5048,23 @@
       <c r="I106" s="7">
         <v>3.0</v>
       </c>
+      <c r="J106" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D107" s="5">
         <v>1.0</v>
@@ -4316,16 +5084,23 @@
       <c r="I107" s="7">
         <v>1.0</v>
       </c>
+      <c r="J107" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D108" s="5">
         <v>1.0</v>
@@ -4345,16 +5120,23 @@
       <c r="I108" s="6">
         <v>1.0</v>
       </c>
+      <c r="J108" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D109" s="5">
         <v>1.0</v>
@@ -4374,16 +5156,23 @@
       <c r="I109" s="7">
         <v>3.0</v>
       </c>
+      <c r="J109" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D110" s="5">
         <v>1.0</v>
@@ -4403,16 +5192,23 @@
       <c r="I110" s="7">
         <v>3.0</v>
       </c>
+      <c r="J110" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D111" s="5">
         <v>1.0</v>
@@ -4432,16 +5228,23 @@
       <c r="I111" s="7">
         <v>1.0</v>
       </c>
+      <c r="J111" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D112" s="5">
         <v>1.0</v>
@@ -4461,16 +5264,23 @@
       <c r="I112" s="7">
         <v>1.0</v>
       </c>
+      <c r="J112" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D113" s="5">
         <v>1.0</v>
@@ -4490,16 +5300,23 @@
       <c r="I113" s="7">
         <v>1.0</v>
       </c>
+      <c r="J113" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D114" s="5">
         <v>1.0</v>
@@ -4519,16 +5336,23 @@
       <c r="I114" s="7">
         <v>1.0</v>
       </c>
+      <c r="J114" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D115" s="5">
         <v>1.0</v>
@@ -4548,16 +5372,23 @@
       <c r="I115" s="7">
         <v>1.0</v>
       </c>
+      <c r="J115" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="4">
@@ -4575,16 +5406,23 @@
       <c r="I116" s="7">
         <v>2.0</v>
       </c>
+      <c r="J116" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D117" s="5"/>
       <c r="F117" s="6">
@@ -4599,16 +5437,23 @@
       <c r="I117" s="6">
         <v>1.0</v>
       </c>
+      <c r="J117" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D118" s="5"/>
       <c r="F118" s="6">
@@ -4623,16 +5468,23 @@
       <c r="I118" s="6">
         <v>2.0</v>
       </c>
+      <c r="J118" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D119" s="5"/>
       <c r="F119" s="6">
@@ -4647,16 +5499,23 @@
       <c r="I119" s="6">
         <v>2.0</v>
       </c>
+      <c r="J119" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D120" s="5"/>
       <c r="F120" s="6">
@@ -4671,16 +5530,23 @@
       <c r="I120" s="6">
         <v>1.0</v>
       </c>
+      <c r="J120" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="4">
@@ -4698,16 +5564,23 @@
       <c r="I121" s="6">
         <v>3.0</v>
       </c>
+      <c r="J121" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D122" s="5"/>
       <c r="F122" s="6">
@@ -4722,16 +5595,23 @@
       <c r="I122" s="6">
         <v>3.0</v>
       </c>
+      <c r="J122" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D123" s="5"/>
       <c r="F123" s="6">
@@ -4746,16 +5626,23 @@
       <c r="I123" s="6">
         <v>3.0</v>
       </c>
+      <c r="J123" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="4">
@@ -4773,16 +5660,23 @@
       <c r="I124" s="6">
         <v>1.0</v>
       </c>
+      <c r="J124" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="4">
@@ -4800,16 +5694,23 @@
       <c r="I125" s="6">
         <v>2.0</v>
       </c>
+      <c r="J125" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="4">
@@ -4827,16 +5728,23 @@
       <c r="I126" s="6">
         <v>4.0</v>
       </c>
+      <c r="J126" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="4">
@@ -4854,16 +5762,23 @@
       <c r="I127" s="6">
         <v>3.0</v>
       </c>
+      <c r="J127" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="4">
@@ -4881,16 +5796,23 @@
       <c r="I128" s="6">
         <v>2.0</v>
       </c>
+      <c r="J128" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="4">
@@ -4908,16 +5830,23 @@
       <c r="I129" s="6">
         <v>3.0</v>
       </c>
+      <c r="J129" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="4">
@@ -4935,16 +5864,23 @@
       <c r="I130" s="6">
         <v>1.0</v>
       </c>
+      <c r="J130" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="4">
@@ -4962,16 +5898,23 @@
       <c r="I131" s="6">
         <v>3.0</v>
       </c>
+      <c r="J131" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="4">
@@ -4989,16 +5932,23 @@
       <c r="I132" s="6">
         <v>3.0</v>
       </c>
+      <c r="J132" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="4">
@@ -5016,16 +5966,23 @@
       <c r="I133" s="6">
         <v>2.0</v>
       </c>
+      <c r="J133" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="4">
@@ -5043,16 +6000,23 @@
       <c r="I134" s="6">
         <v>3.0</v>
       </c>
+      <c r="J134" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="4">
@@ -5070,43 +6034,57 @@
       <c r="I135" s="6">
         <v>1.0</v>
       </c>
+      <c r="J135" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="4">
         <v>119.0</v>
       </c>
-      <c r="F136" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G136" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="H136" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="I136" s="6">
-        <v>1.0</v>
+      <c r="F136" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="G136" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H136" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I136" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J136" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="4">
@@ -5124,16 +6102,23 @@
       <c r="I137" s="6">
         <v>1.0</v>
       </c>
+      <c r="J137" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D138" s="5"/>
       <c r="F138" s="6">
@@ -5148,16 +6133,23 @@
       <c r="I138" s="6">
         <v>4.0</v>
       </c>
+      <c r="J138" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D139" s="5"/>
       <c r="F139" s="6">
@@ -5172,16 +6164,23 @@
       <c r="I139" s="6">
         <v>1.0</v>
       </c>
+      <c r="J139" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D140" s="5"/>
       <c r="F140" s="6">
@@ -5196,16 +6195,23 @@
       <c r="I140" s="6">
         <v>2.0</v>
       </c>
+      <c r="J140" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D141" s="5"/>
       <c r="F141" s="6">
@@ -5220,16 +6226,23 @@
       <c r="I141" s="6">
         <v>3.0</v>
       </c>
+      <c r="J141" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D142" s="5"/>
       <c r="F142" s="7">
@@ -5244,16 +6257,23 @@
       <c r="I142" s="7">
         <v>1.5</v>
       </c>
+      <c r="J142" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D143" s="5"/>
       <c r="F143" s="7">
@@ -5268,16 +6288,23 @@
       <c r="I143" s="7">
         <v>1.0</v>
       </c>
+      <c r="J143" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Understable</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="4" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D144" s="5"/>
       <c r="F144" s="7">
@@ -5292,16 +6319,23 @@
       <c r="I144" s="7">
         <v>3.0</v>
       </c>
+      <c r="J144" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="4" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D145" s="5"/>
       <c r="F145" s="7">
@@ -5316,16 +6350,23 @@
       <c r="I145" s="7">
         <v>1.0</v>
       </c>
+      <c r="J145" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="4" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D146" s="5"/>
       <c r="F146" s="7">
@@ -5340,16 +6381,23 @@
       <c r="I146" s="7">
         <v>2.0</v>
       </c>
+      <c r="J146" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D147" s="5"/>
       <c r="F147" s="7">
@@ -5364,16 +6412,23 @@
       <c r="I147" s="7">
         <v>2.5</v>
       </c>
+      <c r="J147" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="4" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D148" s="5"/>
       <c r="F148" s="7">
@@ -5388,16 +6443,23 @@
       <c r="I148" s="7">
         <v>2.0</v>
       </c>
+      <c r="J148" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="4" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D149" s="5"/>
       <c r="F149" s="7">
@@ -5412,16 +6474,23 @@
       <c r="I149" s="7">
         <v>3.0</v>
       </c>
+      <c r="J149" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D150" s="5"/>
       <c r="F150" s="7">
@@ -5436,16 +6505,23 @@
       <c r="I150" s="7">
         <v>3.0</v>
       </c>
+      <c r="J150" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="4" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="4">
@@ -5463,16 +6539,23 @@
       <c r="I151" s="6">
         <v>3.0</v>
       </c>
+      <c r="J151" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="4" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="4">
@@ -5490,16 +6573,23 @@
       <c r="I152" s="6">
         <v>3.0</v>
       </c>
+      <c r="J152" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Overstable</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="4" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="4">
@@ -5517,16 +6607,23 @@
       <c r="I153" s="6">
         <v>1.0</v>
       </c>
+      <c r="J153" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="4" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="4">
@@ -5543,6 +6640,13 @@
       </c>
       <c r="I154" s="6">
         <v>1.0</v>
+      </c>
+      <c r="J154" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Stable</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1"/>
